--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/move_on/django/projects/myproject/myproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5C7D7-26AD-7940-9B44-216D04B1DD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE5A0C-02A9-AD40-A712-EC851F2393FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" xr2:uid="{42A4FE2A-8365-3842-ACC8-D74453F99B5D}"/>
+    <workbookView xWindow="780" yWindow="820" windowWidth="27640" windowHeight="15840" xr2:uid="{42A4FE2A-8365-3842-ACC8-D74453F99B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Chapter Number</t>
   </si>
@@ -110,9 +110,6 @@
     <t>ISBN</t>
   </si>
   <si>
-    <t>F05A</t>
-  </si>
-  <si>
     <t>F09C</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
   </si>
   <si>
     <t>A. Esophageal/tracheal Combitube and Easytube. B. Parts of the Combitube.</t>
@@ -575,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5685B0DC-BF48-4541-96BB-F50618398E70}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +597,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
@@ -617,7 +611,7 @@
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -645,7 +639,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -659,7 +653,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -673,7 +667,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -687,7 +681,7 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -715,7 +709,7 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4">
         <v>5</v>
@@ -729,7 +723,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
@@ -743,7 +737,7 @@
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
@@ -757,7 +751,7 @@
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
@@ -771,86 +765,86 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
